--- a/ELISAs/CK18 Test ELISA.xlsx
+++ b/ELISAs/CK18 Test ELISA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/spet4768_ox_ac_uk/Documents/Desktop/Results/HNM/ELISAs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{5ABBE3D3-7BFC-476F-BE64-96A676EE1152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{053D4EBB-A4F7-42DA-9984-48BF51CF65DD}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{5ABBE3D3-7BFC-476F-BE64-96A676EE1152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCDEA4E3-5815-49A0-8EBA-6E61617B16F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C54BBE6-F77F-4E24-AAA9-5884BF66CF97}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="End point" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>User: USER</t>
   </si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>Average CK- 18 pg/ml</t>
+  </si>
+  <si>
+    <t>Dilute by 1:4</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -304,6 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,25 +430,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.1189999999999998</c:v>
+                  <c:v>2.3624999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2229999999999996</c:v>
+                  <c:v>1.4664999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.39649999999999985</c:v>
+                  <c:v>0.6399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.26249999999999996</c:v>
+                  <c:v>0.50600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1500000000000066E-2</c:v>
+                  <c:v>0.23199999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.749999999999992E-2</c:v>
+                  <c:v>0.34099999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17299999999999982</c:v>
+                  <c:v>0.41649999999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -889,28 +890,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3060.57687287</c:v>
+                  <c:v>3530.5268226799999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2998.1225515200003</c:v>
+                  <c:v>3464.2046596700002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3060.57687287</c:v>
+                  <c:v>3530.5268226799999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1084.9483474799997</c:v>
+                  <c:v>1410.0562864699998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2967.5570588700007</c:v>
+                  <c:v>3431.7341106800009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2128.40000783</c:v>
+                  <c:v>2536.6954070000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2963.8609226299995</c:v>
+                  <c:v>3427.8070585199994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.246200319999929</c:v>
+                  <c:v>260.70438503000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2235,15 +2236,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>14286</xdr:rowOff>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>1457324</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>1571624</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2269,83 +2270,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="End point"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="12">
-          <cell r="I12" t="str">
-            <v>pg/mL IL-8</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="H14">
-            <v>2.5315000000000003</v>
-          </cell>
-          <cell r="I14">
-            <v>2000</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15">
-            <v>2.5925000000000002</v>
-          </cell>
-          <cell r="I15">
-            <v>1000</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16">
-            <v>2.0605000000000002</v>
-          </cell>
-          <cell r="I16">
-            <v>500</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17">
-            <v>2.3200000000000003</v>
-          </cell>
-          <cell r="I17">
-            <v>250</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18">
-            <v>1.1535000000000002</v>
-          </cell>
-          <cell r="I18">
-            <v>125</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19">
-            <v>0.34849999999999992</v>
-          </cell>
-          <cell r="I19">
-            <v>62.5</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20">
-            <v>0</v>
-          </cell>
-          <cell r="I20">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2945,10 +2869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AABA463-2987-49C9-AD26-2B7B15662C94}">
-  <dimension ref="C1:V20"/>
+  <dimension ref="C1:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,9 +2890,11 @@
     <col min="21" max="21" width="11" customWidth="1"/>
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
     <col min="23" max="23" width="29.42578125" customWidth="1"/>
+    <col min="24" max="24" width="13.28515625" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -3006,7 +2932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>3.2490000000000001</v>
       </c>
@@ -3032,7 +2958,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>3.198</v>
       </c>
@@ -3060,14 +2986,14 @@
       </c>
       <c r="U3">
         <f>T3-$G$20</f>
-        <v>2.3955000000000002</v>
+        <v>2.6390000000000002</v>
       </c>
       <c r="V3">
-        <f>$N$12*(U3*U3)+$N$13*(U3)+$N$14</f>
-        <v>3060.57687287</v>
-      </c>
-    </row>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="V3:V10" si="0">$N$12*(U3*U3)+$N$13*(U3)+$N$14</f>
+        <v>3530.5268226799999</v>
+      </c>
+    </row>
+    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2.5379999999999998</v>
       </c>
@@ -3090,19 +3016,19 @@
         <v>3.4780000000000002</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T10" si="0">AVERAGE(R4:S4)</f>
+        <f t="shared" ref="T4:T10" si="1">AVERAGE(R4:S4)</f>
         <v>3.4664999999999999</v>
       </c>
       <c r="U4">
-        <f t="shared" ref="U4:U10" si="1">T4-$G$20</f>
-        <v>2.3620000000000001</v>
+        <f t="shared" ref="U4:U10" si="2">T4-$G$20</f>
+        <v>2.6055000000000001</v>
       </c>
       <c r="V4">
-        <f>$N$12*(U4*U4)+$N$13*(U4)+$N$14</f>
-        <v>2998.1225515200003</v>
-      </c>
-    </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>3464.2046596700002</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2.117</v>
       </c>
@@ -3125,19 +3051,19 @@
         <v>3.5</v>
       </c>
       <c r="T5">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="2"/>
+        <v>2.6390000000000002</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="1"/>
-        <v>2.3955000000000002</v>
-      </c>
-      <c r="V5">
-        <f>$N$12*(U5*U5)+$N$13*(U5)+$N$14</f>
-        <v>3060.57687287</v>
-      </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+        <v>3530.5268226799999</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1.7430000000000001</v>
       </c>
@@ -3160,19 +3086,23 @@
         <v>2.032</v>
       </c>
       <c r="T6">
+        <f t="shared" si="1"/>
+        <v>2.2454999999999998</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="2"/>
+        <v>1.3844999999999998</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="0"/>
-        <v>2.2454999999999998</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="1"/>
-        <v>1.1409999999999998</v>
-      </c>
-      <c r="V6">
-        <f>$N$12*(U6*U6)+$N$13*(U6)+$N$14</f>
-        <v>1084.9483474799997</v>
-      </c>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+        <v>1410.0562864699998</v>
+      </c>
+      <c r="X6">
+        <f>V4/V8</f>
+        <v>1.365636824236186</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>1.2589999999999999</v>
       </c>
@@ -3195,19 +3125,23 @@
         <v>3.5</v>
       </c>
       <c r="T7">
+        <f t="shared" si="1"/>
+        <v>3.45</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="2"/>
+        <v>2.5890000000000004</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="0"/>
-        <v>3.45</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="1"/>
-        <v>2.3455000000000004</v>
-      </c>
-      <c r="V7">
-        <f>$N$12*(U7*U7)+$N$13*(U7)+$N$14</f>
-        <v>2967.5570588700007</v>
-      </c>
-    </row>
-    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+        <v>3431.7341106800009</v>
+      </c>
+      <c r="X7">
+        <f>V6/V10</f>
+        <v>5.4086404657433764</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1.5349999999999999</v>
       </c>
@@ -3230,19 +3164,19 @@
         <v>3.1339999999999999</v>
       </c>
       <c r="T8">
+        <f t="shared" si="1"/>
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="2"/>
+        <v>2.1050000000000004</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="0"/>
-        <v>2.9660000000000002</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="1"/>
-        <v>1.8615000000000002</v>
-      </c>
-      <c r="V8">
-        <f>$N$12*(U8*U8)+$N$13*(U8)+$N$14</f>
-        <v>2128.40000783</v>
-      </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+        <v>2536.6954070000006</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>1.1990000000000001</v>
       </c>
@@ -3265,19 +3199,19 @@
         <v>3.48</v>
       </c>
       <c r="T9">
+        <f t="shared" si="1"/>
+        <v>3.448</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="2"/>
+        <v>2.5869999999999997</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="0"/>
-        <v>3.448</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="1"/>
-        <v>2.3434999999999997</v>
-      </c>
-      <c r="V9">
-        <f>$N$12*(U9*U9)+$N$13*(U9)+$N$14</f>
-        <v>2963.8609226299995</v>
-      </c>
-    </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+        <v>3427.8070585199994</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
         <v>32</v>
       </c>
@@ -3288,24 +3222,27 @@
         <v>1.1379999999999999</v>
       </c>
       <c r="T10">
+        <f t="shared" si="1"/>
+        <v>1.2524999999999999</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="2"/>
+        <v>0.39149999999999996</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="0"/>
-        <v>1.2524999999999999</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="1"/>
-        <v>0.14799999999999991</v>
-      </c>
-      <c r="V10">
-        <f>$N$12*(U10*U10)+$N$13*(U10)+$N$14</f>
-        <v>50.246200319999929</v>
-      </c>
-    </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+        <v>260.70438503000003</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="N11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>22</v>
       </c>
@@ -3328,7 +3265,7 @@
         <v>237.08</v>
       </c>
     </row>
-    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>3.2490000000000001</v>
       </c>
@@ -3336,12 +3273,12 @@
         <v>3.198</v>
       </c>
       <c r="G13">
-        <f>AVERAGE(E13:F13)</f>
+        <f t="shared" ref="G13:G20" si="3">AVERAGE(E13:F13)</f>
         <v>3.2235</v>
       </c>
       <c r="H13">
-        <f>G13-$G$20</f>
-        <v>2.1189999999999998</v>
+        <f t="shared" ref="H13:H20" si="4">G13-$G$20</f>
+        <v>2.3624999999999998</v>
       </c>
       <c r="I13">
         <v>3000</v>
@@ -3353,7 +3290,7 @@
         <v>736.4</v>
       </c>
     </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>2.5379999999999998</v>
       </c>
@@ -3361,12 +3298,12 @@
         <v>2.117</v>
       </c>
       <c r="G14">
-        <f>AVERAGE(E14:F14)</f>
+        <f t="shared" si="3"/>
         <v>2.3274999999999997</v>
       </c>
       <c r="H14">
-        <f>G14-$G$20</f>
-        <v>1.2229999999999996</v>
+        <f t="shared" si="4"/>
+        <v>1.4664999999999997</v>
       </c>
       <c r="I14">
         <v>1500</v>
@@ -3378,7 +3315,7 @@
         <v>-63.933999999999997</v>
       </c>
     </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>1.7430000000000001</v>
       </c>
@@ -3386,18 +3323,18 @@
         <v>1.2589999999999999</v>
       </c>
       <c r="G15">
-        <f>AVERAGE(E15:F15)</f>
+        <f t="shared" si="3"/>
         <v>1.5009999999999999</v>
       </c>
       <c r="H15">
-        <f>G15-$G$20</f>
-        <v>0.39649999999999985</v>
+        <f t="shared" si="4"/>
+        <v>0.6399999999999999</v>
       </c>
       <c r="I15">
         <v>750</v>
       </c>
     </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>1.5349999999999999</v>
       </c>
@@ -3405,12 +3342,12 @@
         <v>1.1990000000000001</v>
       </c>
       <c r="G16">
-        <f>AVERAGE(E16:F16)</f>
+        <f t="shared" si="3"/>
         <v>1.367</v>
       </c>
       <c r="H16">
-        <f>G16-$G$20</f>
-        <v>0.26249999999999996</v>
+        <f t="shared" si="4"/>
+        <v>0.50600000000000001</v>
       </c>
       <c r="I16">
         <v>375</v>
@@ -3424,12 +3361,12 @@
         <v>1.103</v>
       </c>
       <c r="G17">
-        <f>AVERAGE(E17:F17)</f>
+        <f t="shared" si="3"/>
         <v>1.093</v>
       </c>
       <c r="H17">
-        <f>G17-$G$20</f>
-        <v>-1.1500000000000066E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.23199999999999998</v>
       </c>
       <c r="I17">
         <v>187.5</v>
@@ -3443,12 +3380,12 @@
         <v>1.363</v>
       </c>
       <c r="G18">
-        <f>AVERAGE(E18:F18)</f>
+        <f t="shared" si="3"/>
         <v>1.202</v>
       </c>
       <c r="H18">
-        <f>G18-$G$20</f>
-        <v>9.749999999999992E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.34099999999999997</v>
       </c>
       <c r="I18">
         <v>93.8</v>
@@ -3462,12 +3399,12 @@
         <v>1.095</v>
       </c>
       <c r="G19">
-        <f>AVERAGE(E19:F19)</f>
+        <f t="shared" si="3"/>
         <v>1.2774999999999999</v>
       </c>
       <c r="H19">
-        <f>G19-$G$20</f>
-        <v>0.17299999999999982</v>
+        <f t="shared" si="4"/>
+        <v>0.41649999999999987</v>
       </c>
       <c r="I19">
         <v>46.9</v>
@@ -3477,15 +3414,12 @@
       <c r="E20">
         <v>0.86099999999999999</v>
       </c>
-      <c r="F20">
-        <v>1.3480000000000001</v>
-      </c>
       <c r="G20">
-        <f>AVERAGE(E20:F20)</f>
-        <v>1.1045</v>
+        <f t="shared" si="3"/>
+        <v>0.86099999999999999</v>
       </c>
       <c r="H20">
-        <f>G20-$G$20</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I20">
@@ -3494,6 +3428,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>